--- a/biology/Zoologie/Catostomus_catostomus/Catostomus_catostomus.xlsx
+++ b/biology/Zoologie/Catostomus_catostomus/Catostomus_catostomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meunier rouge
 Le Meunier rouge (Catostomus catostomus) est une espèce de poissons Cypriniformes de la famille des Catostomidaes. C'est un poisson asiatique et américain, étant une des deux espèce avec le Myxocyprinus asiaticus (pas de page en français).
@@ -512,7 +524,9 @@
           <t>Habitat et Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Meunier rouge est originaire d'Amérique du Nord, ainsi on le trouve dans le nord des États-Unis et peut-être au Canada dans le Yukon et la Colombie-Britannique. On le trouve également à l'est de la Russie en Sibérie. 
 </t>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Forster, 1773 : An account of some curious fishes, sent from Hudson's Bay. Philosophical Transactions of the Royal Society of London 63 p. 149–160.</t>
         </is>
